--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877F013-A925-41C1-A2F1-44229801CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="НЧ САЗ" sheetId="1" r:id="rId1"/>
     <sheet name="ВЧ САЗ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t xml:space="preserve">  Дано</t>
   </si>
@@ -103,13 +102,31 @@
   </si>
   <si>
     <t>вид соединения</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>СС</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>ОВ</t>
+  </si>
+  <si>
+    <t>БЕЗ САЗ</t>
+  </si>
+  <si>
+    <t>САЗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +143,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -177,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -185,11 +217,196 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,9 +420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,9 +460,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +532,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,21 +705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -582,7 +799,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -617,7 +834,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -652,7 +869,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,7 +897,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -704,7 +921,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -719,7 +936,7 @@
         <v>29.685817965080854</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
@@ -727,14 +944,36 @@
         <f>C5*SQRT(INDEX(O3:O7,B7)/B3)</f>
         <v>83.66600265340756</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10">
         <f>F9/F8</f>
         <v>2.8183829312644537</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <f>IF($F$5&gt;0.4,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <f>IF($F$11&gt;0.4,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>20</v>
       </c>
@@ -742,23 +981,90 @@
         <f>IF(F10&gt;2,F4/F9,F4/INDEX(L3:N7,B7,B8))</f>
         <v>0.1340397854787031</v>
       </c>
+      <c r="K11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <f>IF($F$5&gt;0.3,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <f>IF($F$11&gt;0.3,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <f>IF($F$5&gt;0.2,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <f>IF($F$11&gt;0.2,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <f>IF($F$5&gt;0.1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <f>IF($F$11&gt;0.1,0,1)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N13">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -790,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -811,7 +1117,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -837,7 +1143,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -863,7 +1169,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -889,7 +1195,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -904,7 +1210,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -919,7 +1225,7 @@
         <v>7.3730479790529087</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -934,7 +1240,7 @@
         <v>3.2934195563847526</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -949,7 +1255,17 @@
         <v>3.2056730343708302</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>20</v>
       </c>
@@ -957,8 +1273,90 @@
         <f>F5/F10</f>
         <v>2.3467847805502362E-3</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <f>IF($F$6&gt;0.4,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <f>IF($F$12&gt;0.4,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <f>IF($F$6&gt;0.3,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <f>IF($F$12&gt;0.3,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <f>IF($F$6&gt;0.2,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <f>IF($F$12&gt;0.2,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <f>IF($F$6&gt;0.1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <f>IF($F$12&gt;0.1,0,1)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K12:K15">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M15">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,11 +211,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -217,15 +238,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -243,26 +267,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -308,91 +312,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -709,7 +633,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:N13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,13 +644,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="6">
@@ -740,12 +664,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>80</v>
       </c>
+      <c r="C2" s="9"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -770,12 +695,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -800,13 +726,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f xml:space="preserve"> 10^(B4/20)</f>
         <v>100</v>
       </c>
@@ -835,13 +761,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> 10^(B5/20)</f>
         <v>3.1622776601683795</v>
       </c>
@@ -870,13 +796,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>1.1220184543019636</v>
       </c>
@@ -898,12 +824,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
+      <c r="C7" s="9"/>
       <c r="K7" s="2">
         <v>53</v>
       </c>
@@ -922,12 +849,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -944,28 +872,28 @@
         <f>C5*SQRT(INDEX(O3:O7,B7)/B3)</f>
         <v>83.66600265340756</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10">
         <f>F9/F8</f>
         <v>2.8183829312644537</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10">
         <f>IF($F$5&gt;0.4,0,1)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N10">
@@ -981,14 +909,14 @@
         <f>IF(F10&gt;2,F4/F9,F4/INDEX(L3:N7,B7,B8))</f>
         <v>0.1340397854787031</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L11">
         <f>IF($F$5&gt;0.3,0,1)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N11">
@@ -997,14 +925,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12">
         <f>IF($F$5&gt;0.2,0,1)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N12">
@@ -1013,14 +941,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13">
         <f>IF($F$5&gt;0.1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N13">
@@ -1034,18 +962,18 @@
     <mergeCell ref="M9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:L13">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N13">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1059,29 +987,30 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>103</v>
       </c>
+      <c r="C2" s="9"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -1097,12 +1026,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>10</v>
       </c>
+      <c r="C3" s="9"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -1118,13 +1048,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f xml:space="preserve"> 10^(B4/20)</f>
         <v>3.1622776601683795</v>
       </c>
@@ -1144,13 +1074,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>-5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> 10^(B5/20)</f>
         <v>0.56234132519034907</v>
       </c>
@@ -1170,13 +1100,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>1.2589254117941673</v>
       </c>
@@ -1196,12 +1126,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
+      <c r="C7" s="9"/>
       <c r="K7" s="2">
         <v>53</v>
       </c>
@@ -1211,12 +1142,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>23</v>
       </c>
+      <c r="C8" s="9"/>
       <c r="E8" t="s">
         <v>26</v>
       </c>
@@ -1226,12 +1158,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>10</v>
       </c>
+      <c r="C9" s="9"/>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1241,12 +1174,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>1.6E-2</v>
       </c>
+      <c r="C10" s="9"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
@@ -1256,14 +1190,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J11" s="7" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="J11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
@@ -1273,14 +1210,14 @@
         <f>F5/F10</f>
         <v>2.3467847805502362E-3</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K12">
         <f>IF($F$6&gt;0.4,0,1)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M12">
@@ -1289,14 +1226,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K13">
         <f>IF($F$6&gt;0.3,0,1)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M13">
@@ -1305,14 +1242,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K14">
         <f>IF($F$6&gt;0.2,0,1)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14">
@@ -1321,14 +1258,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K15">
         <f>IF($F$6&gt;0.1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M15">
@@ -1342,18 +1279,18 @@
     <mergeCell ref="L11:M11"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:K15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="НЧ САЗ" sheetId="1" r:id="rId1"/>
-    <sheet name="ВЧ САЗ" sheetId="2" r:id="rId2"/>
+    <sheet name="НЧ АЭП" sheetId="1" r:id="rId1"/>
+    <sheet name="ВЧ АЭП" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -239,12 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -644,13 +644,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="6">
@@ -664,13 +664,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>80</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -695,13 +695,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -726,13 +726,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>40</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f xml:space="preserve"> 10^(B4/20)</f>
         <v>100</v>
       </c>
@@ -761,13 +761,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>10</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> 10^(B5/20)</f>
         <v>3.1622776601683795</v>
       </c>
@@ -796,13 +796,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>1.1220184543019636</v>
       </c>
@@ -824,13 +824,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="K7" s="2">
         <v>53</v>
       </c>
@@ -849,13 +849,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -872,14 +872,14 @@
         <f>C5*SQRT(INDEX(O3:O7,B7)/B3)</f>
         <v>83.66600265340756</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10">
@@ -993,24 +993,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>103</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -1026,13 +1026,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -1048,13 +1048,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f xml:space="preserve"> 10^(B4/20)</f>
         <v>3.1622776601683795</v>
       </c>
@@ -1074,13 +1074,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> 10^(B5/20)</f>
         <v>0.56234132519034907</v>
       </c>
@@ -1100,13 +1100,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>1.2589254117941673</v>
       </c>
@@ -1126,13 +1126,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="K7" s="2">
         <v>53</v>
       </c>
@@ -1142,13 +1142,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="E8" t="s">
         <v>26</v>
       </c>
@@ -1158,13 +1158,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1174,13 +1174,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
@@ -1190,17 +1190,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="J11" s="8" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="J11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">

--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877F013-A925-41C1-A2F1-44229801CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC4941-E5C4-43F7-8313-4AACCE84E324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НЧ САЗ" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t xml:space="preserve">  Дано</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>САЗ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,11 +238,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -245,6 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -987,10 +1011,13 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -1008,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" t="s">
@@ -1016,7 +1043,7 @@
       </c>
       <c r="F2">
         <f>SQRT(C4*C4-C5*C5)*0.7</f>
-        <v>2.1783131993934552</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
@@ -1038,7 +1065,7 @@
       </c>
       <c r="F3" s="2">
         <f>10^((B2-INDEX(K3:K7,B7))/20)</f>
-        <v>125.89254117941677</v>
+        <v>5.0118723362727229</v>
       </c>
       <c r="K3" s="2">
         <v>66</v>
@@ -1063,7 +1090,7 @@
       </c>
       <c r="F4">
         <f>F2/F3</f>
-        <v>1.7302956783508044E-2</v>
+        <v>0.41900508614346471</v>
       </c>
       <c r="K4" s="2">
         <v>66</v>
@@ -1078,18 +1105,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ref="C5:C6" si="0" xml:space="preserve"> 10^(B5/20)</f>
-        <v>0.56234132519034907</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5">
         <f>F4/B8*B9</f>
-        <v>7.5230246884817583E-3</v>
+        <v>2.6083066612430676</v>
       </c>
       <c r="K5" s="2">
         <v>61</v>
@@ -1104,18 +1131,18 @@
         <v>21</v>
       </c>
       <c r="B6" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>1.2589254117941673</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5">
         <f>F5/B10</f>
-        <v>0.47018904303010989</v>
+        <v>20.063897394177442</v>
       </c>
       <c r="K6" s="2">
         <v>56</v>
@@ -1130,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8"/>
       <c r="K7" s="2">
@@ -1146,7 +1173,8 @@
         <v>22</v>
       </c>
       <c r="B8" s="8">
-        <v>23</v>
+        <f>(B13/B12)^2</f>
+        <v>4</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" t="s">
@@ -1154,7 +1182,7 @@
       </c>
       <c r="F8" s="1">
         <f>0.7*C6*SQRT(INDEX(L3:L7,B7)/B3)</f>
-        <v>7.3730479790529087</v>
+        <v>29.283100928692644</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1162,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>24.9</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -1170,7 +1198,7 @@
       </c>
       <c r="F9">
         <f>0.7*C5*SQRT(L5/B3)</f>
-        <v>3.2934195563847526</v>
+        <v>5.8566201857385289</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1178,7 +1206,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="8">
-        <v>1.6E-2</v>
+        <v>0.13</v>
       </c>
       <c r="C10" s="8"/>
       <c r="E10" t="s">
@@ -1186,12 +1214,16 @@
       </c>
       <c r="F10">
         <f>F8/B8*B9</f>
-        <v>3.2056730343708302</v>
+        <v>182.28730328111169</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8">
+        <v>900</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="J11" s="11" t="s">
         <v>33</v>
@@ -1203,12 +1235,18 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="5">
         <f>F5/F10</f>
-        <v>2.3467847805502362E-3</v>
+        <v>1.4308767611865461E-2</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>31</v>
@@ -1226,6 +1264,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1242,6 +1286,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <f>300/B11</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J14" s="7" t="s">
         <v>30</v>
       </c>

--- a/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
+++ b/ИТЗИ/ИТЗИ калькулятор слышимости.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="НЧ АЭП" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -896,14 +896,14 @@
         <f>C5*SQRT(INDEX(O3:O7,B7)/B3)</f>
         <v>83.66600265340756</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10">
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,20 +1225,20 @@
         <v>900</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -1264,10 +1264,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>2</v>
       </c>
       <c r="J13" s="7" t="s">
